--- a/medicine/Autisme/Adam_(film,_2009)/Adam_(film,_2009).xlsx
+++ b/medicine/Autisme/Adam_(film,_2009)/Adam_(film,_2009).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam est un film américain réalisé par Max Mayer, sorti en 2009.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam (Hugh Dancy) est un jeune homme brillant, passionné d'astronomie. Il est néanmoins atteint du Syndrome d'Asperger, une forme d'autisme, qui l'empêche d'avoir une vie sociale et le force à mener une existence réglée dans les moindres détails. Aussi, quand son père, avec qui il vivait, décède, c'est tout son quotidien qui se retrouve chamboulé. Tandis qu'il essaye de s'adapter à sa nouvelle existence, il fait la connaissance de sa nouvelle voisine, la jolie Beth (Rose Byrne).
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Adam
 Scénario : Max Mayer
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hugh Dancy (VF : Alexandre Gillet ; VQ : Martin Watier) : Adam Raki
 Rose Byrne (VF : Chantal Macé ; VQ : Bianca Gervais) : Elizabeth « Beth » Buchwald
@@ -610,7 +628,7 @@
 Tyler Poelle : Bryan
 Karina Arroyave : l'enseignante assistante
 Lonnie McCullough : experte Witness
-Source et légende : version française (VF) sur Doublagissimo[1] et sur RS Doublage[2] version québécoise (VQ) sur Doublage Québec[3]</t>
+Source et légende : version française (VF) sur Doublagissimo et sur RS Doublage version québécoise (VQ) sur Doublage Québec</t>
         </is>
       </c>
     </row>
